--- a/Tables/Appendix_15_1.xlsx
+++ b/Tables/Appendix_15_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,255 +464,532 @@
           <t>TMV</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>TYD</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>UST</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IEF</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>TBX</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>PST</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>TYO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t># Premium</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1388</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1701</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1175</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1222</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1371</v>
+          <t>Leverage</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>+3x</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>+2x</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>+1x</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-1x</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-2x</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-3x</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>+3x</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>+2x</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>+1x</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>-1x</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-2x</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-3x</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t># Discount</t>
+          <t># Premium</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1498</v>
+        <v>1224</v>
       </c>
       <c r="C3" t="n">
-        <v>1359</v>
+        <v>1325</v>
       </c>
       <c r="D3" t="n">
-        <v>1137</v>
+        <v>1524</v>
       </c>
       <c r="E3" t="n">
-        <v>1479</v>
+        <v>1022</v>
       </c>
       <c r="F3" t="n">
-        <v>1560</v>
+        <v>1093</v>
       </c>
       <c r="G3" t="n">
-        <v>1525</v>
+        <v>1196</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1301</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1324</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1637</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1056</v>
+      </c>
+      <c r="L3" t="n">
+        <v>835</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t># Zero</t>
+          <t># Discount</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>1350</v>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>1226</v>
       </c>
       <c r="D4" t="n">
-        <v>59</v>
+        <v>1008</v>
       </c>
       <c r="E4" t="n">
-        <v>243</v>
+        <v>1332</v>
       </c>
       <c r="F4" t="n">
-        <v>115</v>
+        <v>1384</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>1388</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1284</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1148</v>
+      </c>
+      <c r="J4" t="n">
+        <v>785</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1377</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1515</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1459</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Mean</t>
+          <t># Zero</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004368719281816156</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009539162010185256</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02364456727289314</v>
+        <v>53</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.01313324272109961</v>
+        <v>231</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.02979130365080492</v>
+        <v>108</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.006308437217108686</v>
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>113</v>
+      </c>
+      <c r="J5" t="n">
+        <v>163</v>
+      </c>
+      <c r="K5" t="n">
+        <v>152</v>
+      </c>
+      <c r="L5" t="n">
+        <v>235</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Median</t>
+          <t>Mean</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.003919219291527887</v>
+        <v>-0.005267000982815145</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01641454779529698</v>
+        <v>0.002581809649882622</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03261578604044867</v>
+        <v>0.02188321693018097</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.02240763441286038</v>
+        <v>-0.01471243038176951</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.03537318712415285</v>
+        <v>-0.02564270061869825</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.005634693926000243</v>
+        <v>-0.01097075284900247</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.02654566009763561</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.008066417194097977</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.01967516466475598</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.009499576540680536</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.03614585494901857</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.03726643356024308</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>Median</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.278216770845599</v>
+        <v>-0.005165689490392693</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.337379441542796</v>
+        <v>0.01368550704804313</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.977842530200928</v>
+        <v>0.03277613897082272</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.829963788269214</v>
+        <v>-0.03106554830692144</v>
       </c>
       <c r="F7" t="n">
-        <v>-4.815712110620616</v>
+        <v>-0.03317299718028864</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.704508686783428</v>
+        <v>-0.007924356871887424</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.002110243826954039</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.009552174117613289</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.02664771717889602</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.01558265582655805</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.04253509145045326</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.03888976910999935</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Maximum</t>
+          <t>Minimum</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.687548662107138</v>
+        <v>-4.278216770845599</v>
       </c>
       <c r="C8" t="n">
-        <v>3.404379003447426</v>
+        <v>-6.337379441542796</v>
       </c>
       <c r="D8" t="n">
-        <v>1.309016966384954</v>
+        <v>-4.977842530200928</v>
       </c>
       <c r="E8" t="n">
-        <v>2.949565450823803</v>
+        <v>-2.829963788269214</v>
       </c>
       <c r="F8" t="n">
-        <v>6.42316128476478</v>
+        <v>-4.815712110620616</v>
       </c>
       <c r="G8" t="n">
-        <v>4.467148473595588</v>
+        <v>-2.704508686783428</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-14.4548698653172</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-1.794821498626911</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-1.080854629241719</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-1.213522103438318</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-1.404056162246488</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-2.634034446561183</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>St Dev</t>
+          <t>Maximum</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.215818232873803</v>
+        <v>2.687548662107138</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4461012616713245</v>
+        <v>3.404379003447426</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2530757359914465</v>
+        <v>1.309016966384954</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2340472732987639</v>
+        <v>2.949565450823803</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4485400794278452</v>
+        <v>6.42316128476478</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2133350877196722</v>
+        <v>4.467148473595588</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.567316996902581</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.295147756293325</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.713334601483736</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.192513368983958</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.008652657601973</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.127433428063701</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Skewness</t>
+          <t>St Dev</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.810175619438547</v>
+        <v>0.2208189899036468</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.563291909037661</v>
+        <v>0.4515557407608706</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.405710246873517</v>
+        <v>0.2582692106400472</v>
       </c>
       <c r="E10" t="n">
-        <v>1.167013122412394</v>
+        <v>0.2367811680412534</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7109588597215269</v>
+        <v>0.4533839313855933</v>
       </c>
       <c r="G10" t="n">
-        <v>2.151168044978435</v>
+        <v>0.2164439506972436</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.751968780265263</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1712750623414988</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.08935269678571012</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.1907498270247842</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.1720011575901336</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.3362610345770161</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
+          <t>Skewness</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-1.723739203992794</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.718900494790279</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-5.718504844535516</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.273894449362065</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.789348865802059</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.073320635046438</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-7.423638929225811</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.804339630544703</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-2.713775077872381</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.209972971472368</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.119046660105143</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.01061282421427428</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
           <t>Kurtosis</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>93.56638638950419</v>
-      </c>
-      <c r="C11" t="n">
-        <v>22.93708993572802</v>
-      </c>
-      <c r="D11" t="n">
-        <v>81.97920406183981</v>
-      </c>
-      <c r="E11" t="n">
-        <v>30.38625936837742</v>
-      </c>
-      <c r="F11" t="n">
-        <v>27.94190024233392</v>
-      </c>
-      <c r="G11" t="n">
-        <v>107.5680203369336</v>
+      <c r="B12" t="n">
+        <v>94.35564634786162</v>
+      </c>
+      <c r="C12" t="n">
+        <v>24.21928225927807</v>
+      </c>
+      <c r="D12" t="n">
+        <v>84.45578014694837</v>
+      </c>
+      <c r="E12" t="n">
+        <v>32.41144477121372</v>
+      </c>
+      <c r="F12" t="n">
+        <v>29.81257359123628</v>
+      </c>
+      <c r="G12" t="n">
+        <v>112.1404216201878</v>
+      </c>
+      <c r="H12" t="n">
+        <v>136.174367362708</v>
+      </c>
+      <c r="I12" t="n">
+        <v>13.25358036813098</v>
+      </c>
+      <c r="J12" t="n">
+        <v>32.32462559505868</v>
+      </c>
+      <c r="K12" t="n">
+        <v>19.12882531342899</v>
+      </c>
+      <c r="L12" t="n">
+        <v>16.38039349438454</v>
+      </c>
+      <c r="M12" t="n">
+        <v>12.00220463233944</v>
       </c>
     </row>
   </sheetData>
